--- a/game/resultspace/FlexOil/МЭР FlexOil.xlsx
+++ b/game/resultspace/FlexOil/МЭР FlexOil.xlsx
@@ -789,7 +789,7 @@
         <v>-0</v>
       </c>
       <c r="E2">
-        <v>104.1559753417969</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>-0</v>
@@ -801,7 +801,7 @@
         <v>-0</v>
       </c>
       <c r="I2">
-        <v>94.56568908691406</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>-0</v>
@@ -813,7 +813,7 @@
         <v>-0</v>
       </c>
       <c r="M2">
-        <v>113.0809326171875</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>-0</v>
@@ -825,7 +825,7 @@
         <v>-0</v>
       </c>
       <c r="Q2">
-        <v>99.48389434814452</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <v>-0</v>
@@ -837,7 +837,7 @@
         <v>-0</v>
       </c>
       <c r="U2">
-        <v>100.7493667602539</v>
+        <v>0</v>
       </c>
       <c r="V2">
         <v>-0</v>
@@ -849,88 +849,88 @@
         <v>-0</v>
       </c>
       <c r="Y2">
-        <v>96.71882629394531</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>168.8940734863281</v>
+        <v>-0</v>
       </c>
       <c r="AA2">
-        <v>168.8940734863281</v>
+        <v>-0</v>
       </c>
       <c r="AB2">
-        <v>38203.359375</v>
+        <v>-0</v>
       </c>
       <c r="AC2">
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>78.76194763183594</v>
+        <v>-0</v>
       </c>
       <c r="AE2">
-        <v>78.76194763183594</v>
+        <v>-0</v>
       </c>
       <c r="AF2">
-        <v>17819.259765625</v>
+        <v>-0</v>
       </c>
       <c r="AG2">
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AI2">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AJ2">
-        <v>45198.08203125</v>
+        <v>-0</v>
       </c>
       <c r="AK2">
         <v>0</v>
       </c>
       <c r="AL2">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AM2">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AN2">
-        <v>45181.59375</v>
+        <v>-0</v>
       </c>
       <c r="AO2">
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AQ2">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AR2">
-        <v>45192.9609375</v>
+        <v>-0</v>
       </c>
       <c r="AS2">
         <v>0</v>
       </c>
       <c r="AT2">
-        <v>159.9981994628906</v>
+        <v>-0</v>
       </c>
       <c r="AU2">
-        <v>160</v>
+        <v>-0</v>
       </c>
       <c r="AV2">
-        <v>36191.125</v>
+        <v>-0</v>
       </c>
       <c r="AW2">
         <v>0</v>
       </c>
       <c r="AX2">
-        <v>160</v>
+        <v>-0</v>
       </c>
       <c r="AY2">
-        <v>160</v>
+        <v>-0</v>
       </c>
       <c r="AZ2">
-        <v>36168.5703125</v>
+        <v>-0</v>
       </c>
       <c r="BA2">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>-0</v>
       </c>
       <c r="E3">
-        <v>38.66781997680664</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>-0</v>
@@ -998,7 +998,7 @@
         <v>-0</v>
       </c>
       <c r="I3">
-        <v>33.90373992919922</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>-0</v>
@@ -1010,7 +1010,7 @@
         <v>-0</v>
       </c>
       <c r="M3">
-        <v>40.837890625</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>-0</v>
@@ -1022,7 +1022,7 @@
         <v>-0</v>
       </c>
       <c r="Q3">
-        <v>39.54775619506836</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <v>-0</v>
@@ -1034,7 +1034,7 @@
         <v>-0</v>
       </c>
       <c r="U3">
-        <v>37.46072387695313</v>
+        <v>0</v>
       </c>
       <c r="V3">
         <v>-0</v>
@@ -1046,88 +1046,88 @@
         <v>-0</v>
       </c>
       <c r="Y3">
-        <v>37.18137359619141</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>152.8412475585938</v>
+        <v>-0</v>
       </c>
       <c r="AA3">
-        <v>152.8412475585938</v>
+        <v>-0</v>
       </c>
       <c r="AB3">
-        <v>34571.65234375</v>
+        <v>-0</v>
       </c>
       <c r="AC3">
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>77.10043334960938</v>
+        <v>-0</v>
       </c>
       <c r="AE3">
-        <v>77.10043334960938</v>
+        <v>-0</v>
       </c>
       <c r="AF3">
-        <v>17439.478515625</v>
+        <v>-0</v>
       </c>
       <c r="AG3">
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AI3">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AJ3">
-        <v>45396.78515625</v>
+        <v>-0</v>
       </c>
       <c r="AK3">
         <v>0</v>
       </c>
       <c r="AL3">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AM3">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AN3">
-        <v>45549.54296875</v>
+        <v>-0</v>
       </c>
       <c r="AO3">
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AQ3">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AR3">
-        <v>45450.10546875</v>
+        <v>-0</v>
       </c>
       <c r="AS3">
         <v>0</v>
       </c>
       <c r="AT3">
-        <v>159.9980926513672</v>
+        <v>-0</v>
       </c>
       <c r="AU3">
-        <v>160</v>
+        <v>-0</v>
       </c>
       <c r="AV3">
-        <v>36191.10546875</v>
+        <v>-0</v>
       </c>
       <c r="AW3">
         <v>0</v>
       </c>
       <c r="AX3">
-        <v>160</v>
+        <v>-0</v>
       </c>
       <c r="AY3">
-        <v>160</v>
+        <v>-0</v>
       </c>
       <c r="AZ3">
-        <v>36208.31640625</v>
+        <v>-0</v>
       </c>
       <c r="BA3">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>30.54871368408203</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>26.93979072570801</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1207,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>32.13082981109619</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1219,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>31.32601261138916</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -1231,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>29.68983936309815</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -1243,88 +1243,88 @@
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>29.45418643951416</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>124.2302881876628</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>124.2302881876628</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>28084.37630208333</v>
+        <v>0</v>
       </c>
       <c r="AC4">
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>75.7320048014323</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>75.7320048014323</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>17129.90885416667</v>
+        <v>0</v>
       </c>
       <c r="AG4">
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>45609.17447916666</v>
+        <v>0</v>
       </c>
       <c r="AK4">
         <v>0</v>
       </c>
       <c r="AL4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>45948.61458333334</v>
+        <v>0</v>
       </c>
       <c r="AO4">
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>45786.05078125</v>
+        <v>0</v>
       </c>
       <c r="AS4">
         <v>0</v>
       </c>
       <c r="AT4">
-        <v>159.9980061848958</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>36190.875</v>
+        <v>0</v>
       </c>
       <c r="AW4">
         <v>0</v>
       </c>
       <c r="AX4">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>36314.0078125</v>
+        <v>0</v>
       </c>
       <c r="BA4">
         <v>0</v>
@@ -1371,193 +1371,193 @@
         <v>43951</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E5">
-        <v>22.42960739135742</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I5">
-        <v>19.9758415222168</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M5">
-        <v>23.42376899719238</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q5">
-        <v>23.10426902770996</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U5">
-        <v>21.91895484924316</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y5">
-        <v>21.72699928283691</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>95.61932881673178</v>
+        <v>-0</v>
       </c>
       <c r="AA5">
-        <v>95.61932881673178</v>
+        <v>-0</v>
       </c>
       <c r="AB5">
-        <v>21597.10026041666</v>
+        <v>-0</v>
       </c>
       <c r="AC5">
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>74.3635762532552</v>
+        <v>-0</v>
       </c>
       <c r="AE5">
-        <v>74.3635762532552</v>
+        <v>-0</v>
       </c>
       <c r="AF5">
-        <v>16820.33919270833</v>
+        <v>-0</v>
       </c>
       <c r="AG5">
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AI5">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AJ5">
-        <v>45821.56380208334</v>
+        <v>-0</v>
       </c>
       <c r="AK5">
         <v>0</v>
       </c>
       <c r="AL5">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AM5">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AN5">
-        <v>46347.68619791666</v>
+        <v>-0</v>
       </c>
       <c r="AO5">
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AQ5">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AR5">
-        <v>46121.99609375</v>
+        <v>-0</v>
       </c>
       <c r="AS5">
         <v>0</v>
       </c>
       <c r="AT5">
-        <v>159.9979197184245</v>
+        <v>-0</v>
       </c>
       <c r="AU5">
-        <v>160</v>
+        <v>-0</v>
       </c>
       <c r="AV5">
-        <v>36190.64453125</v>
+        <v>-0</v>
       </c>
       <c r="AW5">
         <v>0</v>
       </c>
       <c r="AX5">
-        <v>160</v>
+        <v>-0</v>
       </c>
       <c r="AY5">
-        <v>160</v>
+        <v>-0</v>
       </c>
       <c r="AZ5">
-        <v>36419.69921875</v>
+        <v>-0</v>
       </c>
       <c r="BA5">
         <v>0</v>
       </c>
       <c r="BB5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE5">
         <v>0</v>
       </c>
       <c r="BF5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BG5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BH5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BI5">
         <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM5">
         <v>0</v>
@@ -1568,193 +1568,193 @@
         <v>43982</v>
       </c>
       <c r="B6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>14.31050109863281</v>
+        <v>52.0720443725586</v>
       </c>
       <c r="F6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>13.01189231872559</v>
+        <v>47.28286361694336</v>
       </c>
       <c r="J6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>14.71670818328857</v>
+        <v>56.5341682434082</v>
       </c>
       <c r="N6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>14.88252544403076</v>
+        <v>49.73638534545898</v>
       </c>
       <c r="R6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>14.14807033538819</v>
+        <v>50.36697769165039</v>
       </c>
       <c r="V6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>13.99981212615967</v>
+        <v>48.35117721557617</v>
       </c>
       <c r="Z6">
-        <v>67.00836944580078</v>
+        <v>84.44915771484375</v>
       </c>
       <c r="AA6">
-        <v>67.00836944580078</v>
+        <v>84.44915771484375</v>
       </c>
       <c r="AB6">
-        <v>15109.82421875</v>
+        <v>19102.158203125</v>
       </c>
       <c r="AC6">
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>72.99514770507812</v>
+        <v>39.40647888183594</v>
       </c>
       <c r="AE6">
-        <v>72.99514770507812</v>
+        <v>39.40647888183594</v>
       </c>
       <c r="AF6">
-        <v>16510.76953125</v>
+        <v>8913.6337890625</v>
       </c>
       <c r="AG6">
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AI6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AJ6">
-        <v>46033.953125</v>
+        <v>22599.05859375</v>
       </c>
       <c r="AK6">
         <v>0</v>
       </c>
       <c r="AL6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AM6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AN6">
-        <v>46746.7578125</v>
+        <v>22590.74609375</v>
       </c>
       <c r="AO6">
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AQ6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AR6">
-        <v>46457.94140625</v>
+        <v>22596.498046875</v>
       </c>
       <c r="AS6">
         <v>0</v>
       </c>
       <c r="AT6">
-        <v>159.9978332519531</v>
+        <v>79.99909973144531</v>
       </c>
       <c r="AU6">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="AV6">
-        <v>36190.4140625</v>
+        <v>18095.568359375</v>
       </c>
       <c r="AW6">
         <v>0</v>
       </c>
       <c r="AX6">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="AY6">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="AZ6">
-        <v>36525.390625</v>
+        <v>18083.001953125</v>
       </c>
       <c r="BA6">
         <v>0</v>
       </c>
       <c r="BB6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BE6">
         <v>0</v>
       </c>
       <c r="BF6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI6">
         <v>0</v>
       </c>
       <c r="BJ6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM6">
         <v>0</v>
@@ -1765,193 +1765,193 @@
         <v>44012</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E7">
-        <v>10.29951500892639</v>
+        <v>104.1440887451172</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I7">
-        <v>8.961130142211914</v>
+        <v>94.56572723388672</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M7">
-        <v>10.85274791717529</v>
+        <v>113.0683364868164</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q7">
-        <v>10.69834733009338</v>
+        <v>99.47277069091795</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U7">
-        <v>10.15713000297546</v>
+        <v>100.7339553833008</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y7">
-        <v>9.982099056243896</v>
+        <v>96.70235443115234</v>
       </c>
       <c r="Z7">
-        <v>50.82146835327148</v>
+        <v>168.8983154296875</v>
       </c>
       <c r="AA7">
-        <v>50.82146835327148</v>
+        <v>168.8983154296875</v>
       </c>
       <c r="AB7">
-        <v>11483.92138671875</v>
+        <v>38204.31640625</v>
       </c>
       <c r="AC7">
         <v>0</v>
       </c>
       <c r="AD7">
-        <v>62.91371726989746</v>
+        <v>78.81295776367188</v>
       </c>
       <c r="AE7">
-        <v>62.91371726989746</v>
+        <v>78.81295776367188</v>
       </c>
       <c r="AF7">
-        <v>14230.57275390625</v>
+        <v>17827.267578125</v>
       </c>
       <c r="AG7">
         <v>0</v>
       </c>
       <c r="AH7">
-        <v>191.2637939453125</v>
+        <v>200</v>
       </c>
       <c r="AI7">
-        <v>191.2637939453125</v>
+        <v>200</v>
       </c>
       <c r="AJ7">
-        <v>45637.044921875</v>
+        <v>45198.1171875</v>
       </c>
       <c r="AK7">
         <v>0</v>
       </c>
       <c r="AL7">
-        <v>187.4729919433594</v>
+        <v>200</v>
       </c>
       <c r="AM7">
-        <v>187.4729919433594</v>
+        <v>200</v>
       </c>
       <c r="AN7">
-        <v>44748.91015625</v>
+        <v>45181.4921875</v>
       </c>
       <c r="AO7">
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>195.3988494873047</v>
+        <v>200</v>
       </c>
       <c r="AQ7">
-        <v>195.3988494873047</v>
+        <v>200</v>
       </c>
       <c r="AR7">
-        <v>47449.10546875</v>
+        <v>45192.99609375</v>
       </c>
       <c r="AS7">
         <v>0</v>
       </c>
       <c r="AT7">
-        <v>159.9976959228516</v>
+        <v>159.9981994628906</v>
       </c>
       <c r="AU7">
         <v>160</v>
       </c>
       <c r="AV7">
-        <v>36182.052734375</v>
+        <v>36191.13671875</v>
       </c>
       <c r="AW7">
         <v>0</v>
       </c>
       <c r="AX7">
-        <v>160.0000686645508</v>
+        <v>160</v>
       </c>
       <c r="AY7">
-        <v>160.0000686645508</v>
+        <v>160</v>
       </c>
       <c r="AZ7">
-        <v>36665.4296875</v>
+        <v>36166.00390625</v>
       </c>
       <c r="BA7">
         <v>0</v>
       </c>
       <c r="BB7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC7">
-        <v>0.007191400043666363</v>
+        <v>-0</v>
       </c>
       <c r="BD7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE7">
         <v>0</v>
       </c>
       <c r="BF7">
-        <v>6.115600105320583e-13</v>
+        <v>-0</v>
       </c>
       <c r="BG7">
-        <v>0.01027832087129354</v>
+        <v>-0</v>
       </c>
       <c r="BH7">
-        <v>1.640676310088462e-12</v>
+        <v>-0</v>
       </c>
       <c r="BI7">
         <v>0</v>
       </c>
       <c r="BJ7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM7">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>-0</v>
       </c>
       <c r="E8">
-        <v>6.288528919219972</v>
+        <v>22.86551284790039</v>
       </c>
       <c r="F8">
         <v>-0</v>
@@ -1983,7 +1983,7 @@
         <v>-0</v>
       </c>
       <c r="I8">
-        <v>4.910367965698242</v>
+        <v>20.52542304992676</v>
       </c>
       <c r="J8">
         <v>-0</v>
@@ -1995,7 +1995,7 @@
         <v>-0</v>
       </c>
       <c r="M8">
-        <v>6.988787651062013</v>
+        <v>23.41157722473145</v>
       </c>
       <c r="N8">
         <v>-0</v>
@@ -2007,7 +2007,7 @@
         <v>-0</v>
       </c>
       <c r="Q8">
-        <v>6.514169216156006</v>
+        <v>23.00963592529297</v>
       </c>
       <c r="R8">
         <v>-0</v>
@@ -2019,7 +2019,7 @@
         <v>-0</v>
       </c>
       <c r="U8">
-        <v>6.166189670562744</v>
+        <v>22.55912971496582</v>
       </c>
       <c r="V8">
         <v>-0</v>
@@ -2031,88 +2031,88 @@
         <v>-0</v>
       </c>
       <c r="Y8">
-        <v>5.964385986328125</v>
+        <v>22.15547752380371</v>
       </c>
       <c r="Z8">
-        <v>34.63456726074219</v>
+        <v>108.3065948486328</v>
       </c>
       <c r="AA8">
-        <v>34.63456726074219</v>
+        <v>108.3065948486328</v>
       </c>
       <c r="AB8">
-        <v>7858.0185546875</v>
+        <v>24498.64453125</v>
       </c>
       <c r="AC8">
         <v>0</v>
       </c>
       <c r="AD8">
-        <v>52.8322868347168</v>
+        <v>60.29885482788086</v>
       </c>
       <c r="AE8">
-        <v>52.8322868347168</v>
+        <v>60.29885482788086</v>
       </c>
       <c r="AF8">
-        <v>11950.3759765625</v>
+        <v>13639.4296875</v>
       </c>
       <c r="AG8">
         <v>0</v>
       </c>
       <c r="AH8">
-        <v>182.527587890625</v>
+        <v>200</v>
       </c>
       <c r="AI8">
-        <v>182.527587890625</v>
+        <v>200</v>
       </c>
       <c r="AJ8">
-        <v>45240.13671875</v>
+        <v>45636.07421875</v>
       </c>
       <c r="AK8">
         <v>0</v>
       </c>
       <c r="AL8">
-        <v>174.9459838867188</v>
+        <v>200</v>
       </c>
       <c r="AM8">
-        <v>174.9459838867188</v>
+        <v>200</v>
       </c>
       <c r="AN8">
-        <v>42751.0625</v>
+        <v>45865.1484375</v>
       </c>
       <c r="AO8">
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>190.7976989746094</v>
+        <v>200</v>
       </c>
       <c r="AQ8">
-        <v>190.7976989746094</v>
+        <v>200</v>
       </c>
       <c r="AR8">
-        <v>48440.26953125</v>
+        <v>45714.4765625</v>
       </c>
       <c r="AS8">
         <v>0</v>
       </c>
       <c r="AT8">
-        <v>159.99755859375</v>
+        <v>159.9980316162109</v>
       </c>
       <c r="AU8">
         <v>160</v>
       </c>
       <c r="AV8">
-        <v>36173.69140625</v>
+        <v>36191.1015625</v>
       </c>
       <c r="AW8">
         <v>0</v>
       </c>
       <c r="AX8">
-        <v>160.0001373291016</v>
+        <v>160</v>
       </c>
       <c r="AY8">
-        <v>160.0001373291016</v>
+        <v>160</v>
       </c>
       <c r="AZ8">
-        <v>36805.46875</v>
+        <v>36339.66015625</v>
       </c>
       <c r="BA8">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>-0</v>
       </c>
       <c r="BC8">
-        <v>0.01438280008733273</v>
+        <v>0.01440979260951281</v>
       </c>
       <c r="BD8">
         <v>-0</v>
@@ -2130,13 +2130,13 @@
         <v>0</v>
       </c>
       <c r="BF8">
-        <v>1.223120021064117e-12</v>
+        <v>1.223122081048245e-12</v>
       </c>
       <c r="BG8">
-        <v>0.02055664174258709</v>
+        <v>0.02055663987994194</v>
       </c>
       <c r="BH8">
-        <v>3.281352620176925e-12</v>
+        <v>3.28135912538996e-12</v>
       </c>
       <c r="BI8">
         <v>0</v>
@@ -2168,7 +2168,7 @@
         <v>-0</v>
       </c>
       <c r="E9">
-        <v>5.453563690185547</v>
+        <v>13.71600437164306</v>
       </c>
       <c r="F9">
         <v>-0</v>
@@ -2180,7 +2180,7 @@
         <v>-0</v>
       </c>
       <c r="I9">
-        <v>4.50584888458252</v>
+        <v>12.73230171203613</v>
       </c>
       <c r="J9">
         <v>-0</v>
@@ -2192,7 +2192,7 @@
         <v>-0</v>
       </c>
       <c r="M9">
-        <v>6.196215629577638</v>
+        <v>14.00620651245117</v>
       </c>
       <c r="N9">
         <v>-0</v>
@@ -2204,7 +2204,7 @@
         <v>-0</v>
       </c>
       <c r="Q9">
-        <v>5.203393936157227</v>
+        <v>14.65768718719482</v>
       </c>
       <c r="R9">
         <v>-0</v>
@@ -2216,7 +2216,7 @@
         <v>-0</v>
       </c>
       <c r="U9">
-        <v>5.419384956359863</v>
+        <v>13.79601192474365</v>
       </c>
       <c r="V9">
         <v>-0</v>
@@ -2228,76 +2228,76 @@
         <v>-0</v>
       </c>
       <c r="Y9">
-        <v>5.001978397369385</v>
+        <v>13.80373954772949</v>
       </c>
       <c r="Z9">
-        <v>32.66152191162109</v>
+        <v>74.00224304199219</v>
       </c>
       <c r="AA9">
-        <v>32.66152191162109</v>
+        <v>74.00224304199219</v>
       </c>
       <c r="AB9">
-        <v>7380.216796875</v>
+        <v>16726.626953125</v>
       </c>
       <c r="AC9">
         <v>0</v>
       </c>
       <c r="AD9">
-        <v>51.74199295043945</v>
+        <v>59.04126739501953</v>
       </c>
       <c r="AE9">
-        <v>51.74199295043945</v>
+        <v>59.04126739501953</v>
       </c>
       <c r="AF9">
-        <v>11703.80078125</v>
+        <v>13354.966796875</v>
       </c>
       <c r="AG9">
         <v>0</v>
       </c>
       <c r="AH9">
-        <v>162.5882568359375</v>
+        <v>200</v>
       </c>
       <c r="AI9">
-        <v>162.5882568359375</v>
+        <v>200</v>
       </c>
       <c r="AJ9">
-        <v>39610.37890625</v>
+        <v>45888.58203125</v>
       </c>
       <c r="AK9">
         <v>0</v>
       </c>
       <c r="AL9">
-        <v>155.9759979248047</v>
+        <v>200</v>
       </c>
       <c r="AM9">
-        <v>155.9759979248047</v>
+        <v>200</v>
       </c>
       <c r="AN9">
-        <v>37661.58984375</v>
+        <v>46296.2265625</v>
       </c>
       <c r="AO9">
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>170.6820068359375</v>
+        <v>200</v>
       </c>
       <c r="AQ9">
-        <v>170.6820068359375</v>
+        <v>200</v>
       </c>
       <c r="AR9">
-        <v>42237.48046875</v>
+        <v>46027.80078125</v>
       </c>
       <c r="AS9">
         <v>0</v>
       </c>
       <c r="AT9">
-        <v>159.9974670410156</v>
+        <v>159.9979400634766</v>
       </c>
       <c r="AU9">
         <v>160</v>
       </c>
       <c r="AV9">
-        <v>36164.78515625</v>
+        <v>36191.08203125</v>
       </c>
       <c r="AW9">
         <v>0</v>
@@ -2309,7 +2309,7 @@
         <v>160</v>
       </c>
       <c r="AZ9">
-        <v>37079.390625</v>
+        <v>36465.34375</v>
       </c>
       <c r="BA9">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>-0</v>
       </c>
       <c r="BC9">
-        <v>0.0142724858596921</v>
+        <v>0.01430484745651484</v>
       </c>
       <c r="BD9">
         <v>-0</v>
@@ -2327,13 +2327,13 @@
         <v>0</v>
       </c>
       <c r="BF9">
-        <v>9.502439118772367e-17</v>
+        <v>9.502437795283387e-17</v>
       </c>
       <c r="BG9">
-        <v>0.02044409886002541</v>
+        <v>0.02044409699738026</v>
       </c>
       <c r="BH9">
-        <v>2.574899691523084e-16</v>
+        <v>2.5749052501768e-16</v>
       </c>
       <c r="BI9">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>-0</v>
       </c>
       <c r="E10">
-        <v>4.936164855957031</v>
+        <v>9.595342636108398</v>
       </c>
       <c r="F10">
         <v>-0</v>
@@ -2377,7 +2377,7 @@
         <v>-0</v>
       </c>
       <c r="I10">
-        <v>4.254895210266113</v>
+        <v>8.439897537231445</v>
       </c>
       <c r="J10">
         <v>-0</v>
@@ -2389,7 +2389,7 @@
         <v>-0</v>
       </c>
       <c r="M10">
-        <v>5.712461948394775</v>
+        <v>9.669013977050779</v>
       </c>
       <c r="N10">
         <v>-0</v>
@@ -2401,7 +2401,7 @@
         <v>-0</v>
       </c>
       <c r="Q10">
-        <v>4.527942180633545</v>
+        <v>10.58989906311035</v>
       </c>
       <c r="R10">
         <v>-0</v>
@@ -2413,7 +2413,7 @@
         <v>-0</v>
       </c>
       <c r="U10">
-        <v>4.973787307739258</v>
+        <v>9.376742362976074</v>
       </c>
       <c r="V10">
         <v>-0</v>
@@ -2425,76 +2425,76 @@
         <v>-0</v>
       </c>
       <c r="Y10">
-        <v>4.479015350341797</v>
+        <v>9.469285011291504</v>
       </c>
       <c r="Z10">
-        <v>31.41090583801269</v>
+        <v>55.34966659545898</v>
       </c>
       <c r="AA10">
-        <v>31.41090583801269</v>
+        <v>55.34966659545898</v>
       </c>
       <c r="AB10">
-        <v>7014.14697265625</v>
+        <v>12490.1806640625</v>
       </c>
       <c r="AC10">
         <v>0</v>
       </c>
       <c r="AD10">
-        <v>50.6769027709961</v>
+        <v>57.84186935424805</v>
       </c>
       <c r="AE10">
-        <v>50.6769027709961</v>
+        <v>57.84186935424805</v>
       </c>
       <c r="AF10">
-        <v>11462.91015625</v>
+        <v>13083.6669921875</v>
       </c>
       <c r="AG10">
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>148.2889862060547</v>
+        <v>200</v>
       </c>
       <c r="AI10">
-        <v>148.2889862060547</v>
+        <v>200</v>
       </c>
       <c r="AJ10">
-        <v>35405.8203125</v>
+        <v>46402.42578125</v>
       </c>
       <c r="AK10">
         <v>0</v>
       </c>
       <c r="AL10">
-        <v>142.1691436767578</v>
+        <v>200</v>
       </c>
       <c r="AM10">
-        <v>142.1691436767578</v>
+        <v>200</v>
       </c>
       <c r="AN10">
-        <v>33889.0078125</v>
+        <v>47326.95703125</v>
       </c>
       <c r="AO10">
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>155.7391967773438</v>
+        <v>200</v>
       </c>
       <c r="AQ10">
-        <v>155.7391967773438</v>
+        <v>200</v>
       </c>
       <c r="AR10">
-        <v>38109.83203125</v>
+        <v>46940.73046875</v>
       </c>
       <c r="AS10">
         <v>0</v>
       </c>
       <c r="AT10">
-        <v>159.9973754882812</v>
+        <v>159.9978485107422</v>
       </c>
       <c r="AU10">
         <v>160</v>
       </c>
       <c r="AV10">
-        <v>36156.078125</v>
+        <v>36190.64453125</v>
       </c>
       <c r="AW10">
         <v>0</v>
@@ -2506,7 +2506,7 @@
         <v>160</v>
       </c>
       <c r="AZ10">
-        <v>37730.52734375</v>
+        <v>36563.79296875</v>
       </c>
       <c r="BA10">
         <v>0</v>
@@ -2515,7 +2515,7 @@
         <v>-0</v>
       </c>
       <c r="BC10">
-        <v>0.01417282782495022</v>
+        <v>0.01421017851680517</v>
       </c>
       <c r="BD10">
         <v>-0</v>
@@ -2527,22 +2527,22 @@
         <v>-0</v>
       </c>
       <c r="BG10">
-        <v>0.02034412138164044</v>
+        <v>0.02034411951899529</v>
       </c>
       <c r="BH10">
-        <v>2.168386444265565e-20</v>
+        <v>2.168391129468254e-20</v>
       </c>
       <c r="BI10">
         <v>0</v>
       </c>
       <c r="BJ10">
-        <v>0.00172611465677619</v>
+        <v>3.146011067656218e-06</v>
       </c>
       <c r="BK10">
-        <v>0.02603567950427532</v>
+        <v>0.02605015784502029</v>
       </c>
       <c r="BL10">
-        <v>0.0010282879229635</v>
+        <v>0.0001739451545290649</v>
       </c>
       <c r="BM10">
         <v>0</v>
@@ -2562,7 +2562,7 @@
         <v>-0</v>
       </c>
       <c r="E11">
-        <v>4.519871711730957</v>
+        <v>7.265851020812987</v>
       </c>
       <c r="F11">
         <v>-0</v>
@@ -2574,7 +2574,7 @@
         <v>-0</v>
       </c>
       <c r="I11">
-        <v>4.015115737915038</v>
+        <v>5.92884349822998</v>
       </c>
       <c r="J11">
         <v>-0</v>
@@ -2586,7 +2586,7 @@
         <v>-0</v>
       </c>
       <c r="M11">
-        <v>5.417235851287842</v>
+        <v>7.85194206237793</v>
       </c>
       <c r="N11">
         <v>-0</v>
@@ -2598,7 +2598,7 @@
         <v>-0</v>
       </c>
       <c r="Q11">
-        <v>4.265950679779054</v>
+        <v>8.004386901855469</v>
       </c>
       <c r="R11">
         <v>-0</v>
@@ -2610,7 +2610,7 @@
         <v>-0</v>
       </c>
       <c r="U11">
-        <v>4.580560207366943</v>
+        <v>7.138845443725586</v>
       </c>
       <c r="V11">
         <v>-0</v>
@@ -2622,88 +2622,88 @@
         <v>-0</v>
       </c>
       <c r="Y11">
-        <v>4.118632316589356</v>
+        <v>7.183317184448242</v>
       </c>
       <c r="Z11">
-        <v>30.23062896728516</v>
+        <v>46.39177703857422</v>
       </c>
       <c r="AA11">
-        <v>30.23062896728516</v>
+        <v>46.39177703857422</v>
       </c>
       <c r="AB11">
-        <v>6702.02294921875</v>
+        <v>10441.6171875</v>
       </c>
       <c r="AC11">
         <v>0</v>
       </c>
       <c r="AD11">
-        <v>49.60153198242188</v>
+        <v>56.62425231933594</v>
       </c>
       <c r="AE11">
-        <v>49.60153198242188</v>
+        <v>56.62425231933594</v>
       </c>
       <c r="AF11">
-        <v>11219.68359375</v>
+        <v>12808.2451171875</v>
       </c>
       <c r="AG11">
         <v>0</v>
       </c>
       <c r="AH11">
-        <v>135.6587219238281</v>
+        <v>200</v>
       </c>
       <c r="AI11">
-        <v>135.6587219238281</v>
+        <v>200</v>
       </c>
       <c r="AJ11">
-        <v>32129.96484375</v>
+        <v>47063.3046875</v>
       </c>
       <c r="AK11">
         <v>0</v>
       </c>
       <c r="AL11">
-        <v>129.9918823242188</v>
+        <v>200</v>
       </c>
       <c r="AM11">
-        <v>129.9918823242188</v>
+        <v>200</v>
       </c>
       <c r="AN11">
-        <v>30831.611328125</v>
+        <v>47906.6640625</v>
       </c>
       <c r="AO11">
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>143.9812316894531</v>
+        <v>199.9999847412109</v>
       </c>
       <c r="AQ11">
-        <v>143.9812316894531</v>
+        <v>199.9999847412109</v>
       </c>
       <c r="AR11">
-        <v>34762.75</v>
+        <v>47457.828125</v>
       </c>
       <c r="AS11">
         <v>0</v>
       </c>
       <c r="AT11">
-        <v>159.9972991943359</v>
+        <v>159.9977416992188</v>
       </c>
       <c r="AU11">
         <v>160</v>
       </c>
       <c r="AV11">
-        <v>36165.84375</v>
+        <v>36187.52734375</v>
       </c>
       <c r="AW11">
         <v>0</v>
       </c>
       <c r="AX11">
-        <v>159.9999694824219</v>
+        <v>160</v>
       </c>
       <c r="AY11">
-        <v>159.9999694824219</v>
+        <v>160</v>
       </c>
       <c r="AZ11">
-        <v>38106.66015625</v>
+        <v>36682.90234375</v>
       </c>
       <c r="BA11">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         <v>-0</v>
       </c>
       <c r="BC11">
-        <v>0.01407791301608086</v>
+        <v>0.01412032451480627</v>
       </c>
       <c r="BD11">
         <v>-0</v>
@@ -2727,19 +2727,19 @@
         <v>0.02025101147592068</v>
       </c>
       <c r="BH11">
-        <v>9.692290287077476e-23</v>
+        <v>9.692311744094099e-23</v>
       </c>
       <c r="BI11">
         <v>0</v>
       </c>
       <c r="BJ11">
-        <v>5.805106866318965e-06</v>
+        <v>1.091932144703378e-08</v>
       </c>
       <c r="BK11">
-        <v>0.0255261529237032</v>
+        <v>0.02559487335383892</v>
       </c>
       <c r="BL11">
-        <v>3.458241735643242e-06</v>
+        <v>6.037369075784227e-07</v>
       </c>
       <c r="BM11">
         <v>0</v>
@@ -2759,7 +2759,7 @@
         <v>-0</v>
       </c>
       <c r="E12">
-        <v>4.29520845413208</v>
+        <v>6.131143093109131</v>
       </c>
       <c r="F12">
         <v>-0</v>
@@ -2771,7 +2771,7 @@
         <v>-0</v>
       </c>
       <c r="I12">
-        <v>3.795912742614746</v>
+        <v>4.75043249130249</v>
       </c>
       <c r="J12">
         <v>-0</v>
@@ -2783,7 +2783,7 @@
         <v>-0</v>
       </c>
       <c r="M12">
-        <v>5.144184589385986</v>
+        <v>6.948556900024414</v>
       </c>
       <c r="N12">
         <v>-0</v>
@@ -2795,7 +2795,7 @@
         <v>-0</v>
       </c>
       <c r="Q12">
-        <v>4.082227706909181</v>
+        <v>6.25780725479126</v>
       </c>
       <c r="R12">
         <v>-0</v>
@@ -2807,7 +2807,7 @@
         <v>-0</v>
       </c>
       <c r="U12">
-        <v>4.241827011108398</v>
+        <v>6.019805431365968</v>
       </c>
       <c r="V12">
         <v>-0</v>
@@ -2819,88 +2819,88 @@
         <v>-0</v>
       </c>
       <c r="Y12">
-        <v>3.80895733833313</v>
+        <v>5.704196929931642</v>
       </c>
       <c r="Z12">
-        <v>28.98456382751465</v>
+        <v>40.03860473632813</v>
       </c>
       <c r="AA12">
-        <v>28.98456382751465</v>
+        <v>40.03860473632813</v>
       </c>
       <c r="AB12">
-        <v>6515.404296875</v>
+        <v>8965.244140625</v>
       </c>
       <c r="AC12">
         <v>0</v>
       </c>
       <c r="AD12">
-        <v>48.57472610473633</v>
+        <v>55.46866989135742</v>
       </c>
       <c r="AE12">
-        <v>48.57472610473633</v>
+        <v>55.46866989135742</v>
       </c>
       <c r="AF12">
-        <v>10987.435546875</v>
+        <v>12546.85546875</v>
       </c>
       <c r="AG12">
         <v>0</v>
       </c>
       <c r="AH12">
-        <v>125.4549331665039</v>
+        <v>200</v>
       </c>
       <c r="AI12">
-        <v>125.4549331665039</v>
+        <v>200</v>
       </c>
       <c r="AJ12">
-        <v>29647.93359375</v>
+        <v>47810.609375</v>
       </c>
       <c r="AK12">
         <v>0</v>
       </c>
       <c r="AL12">
-        <v>119.6627883911133</v>
+        <v>200</v>
       </c>
       <c r="AM12">
-        <v>119.6627883911133</v>
+        <v>200</v>
       </c>
       <c r="AN12">
-        <v>28365.431640625</v>
+        <v>48594.41796875</v>
       </c>
       <c r="AO12">
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>135.5832977294922</v>
+        <v>200</v>
       </c>
       <c r="AQ12">
-        <v>135.5832977294922</v>
+        <v>200</v>
       </c>
       <c r="AR12">
-        <v>32534.677734375</v>
+        <v>48226.66796875</v>
       </c>
       <c r="AS12">
         <v>0</v>
       </c>
       <c r="AT12">
-        <v>159.9972229003906</v>
+        <v>159.9976501464844</v>
       </c>
       <c r="AU12">
         <v>160</v>
       </c>
       <c r="AV12">
-        <v>36223.0859375</v>
+        <v>36181.34765625</v>
       </c>
       <c r="AW12">
         <v>0</v>
       </c>
       <c r="AX12">
-        <v>136.7948913574219</v>
+        <v>160</v>
       </c>
       <c r="AY12">
-        <v>136.7948913574219</v>
+        <v>160</v>
       </c>
       <c r="AZ12">
-        <v>32630.970703125</v>
+        <v>36768.8828125</v>
       </c>
       <c r="BA12">
         <v>0</v>
@@ -2909,7 +2909,7 @@
         <v>-0</v>
       </c>
       <c r="BC12">
-        <v>0.01399138756096363</v>
+        <v>0.01403873227536678</v>
       </c>
       <c r="BD12">
         <v>-0</v>
@@ -2924,19 +2924,19 @@
         <v>0.02016769722104073</v>
       </c>
       <c r="BH12">
-        <v>4.496508638873965e-25</v>
+        <v>4.496518499635279e-25</v>
       </c>
       <c r="BI12">
         <v>0</v>
       </c>
       <c r="BJ12">
-        <v>2.138342836133233e-08</v>
+        <v>4.011886309274182e-11</v>
       </c>
       <c r="BK12">
-        <v>0.02537703886628151</v>
+        <v>0.02545472234487534</v>
       </c>
       <c r="BL12">
-        <v>1.273862171302653e-08</v>
+        <v>2.218200068071496e-09</v>
       </c>
       <c r="BM12">
         <v>0</v>

--- a/game/resultspace/FlexOil/МЭР FlexOil.xlsx
+++ b/game/resultspace/FlexOil/МЭР FlexOil.xlsx
@@ -572,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BM12"/>
+  <dimension ref="A1:BM8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -777,7 +777,7 @@
     </row>
     <row r="2" spans="1:65">
       <c r="A2" s="2">
-        <v>43861</v>
+        <v>43982</v>
       </c>
       <c r="B2">
         <v>-0</v>
@@ -974,7 +974,7 @@
     </row>
     <row r="3" spans="1:65">
       <c r="A3" s="2">
-        <v>43890</v>
+        <v>44012</v>
       </c>
       <c r="B3">
         <v>-0</v>
@@ -986,7 +986,7 @@
         <v>-0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F3">
         <v>-0</v>
@@ -998,7 +998,7 @@
         <v>-0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="J3">
         <v>-0</v>
@@ -1010,7 +1010,7 @@
         <v>-0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="N3">
         <v>-0</v>
@@ -1022,7 +1022,7 @@
         <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="R3">
         <v>-0</v>
@@ -1034,7 +1034,7 @@
         <v>-0</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="V3">
         <v>-0</v>
@@ -1046,88 +1046,88 @@
         <v>-0</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Z3">
-        <v>-0</v>
+        <v>120.6891860961914</v>
       </c>
       <c r="AA3">
-        <v>-0</v>
+        <v>120.8044052124023</v>
       </c>
       <c r="AB3">
-        <v>-0</v>
+        <v>27299.552734375</v>
       </c>
       <c r="AC3">
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>-0</v>
+        <v>56.55502700805664</v>
       </c>
       <c r="AE3">
-        <v>-0</v>
+        <v>56.6074333190918</v>
       </c>
       <c r="AF3">
-        <v>-0</v>
+        <v>12792.5859375</v>
       </c>
       <c r="AG3">
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>-0</v>
+        <v>199.8060302734375</v>
       </c>
       <c r="AI3">
-        <v>-0</v>
+        <v>200</v>
       </c>
       <c r="AJ3">
-        <v>-0</v>
+        <v>47195.9765625</v>
       </c>
       <c r="AK3">
         <v>0</v>
       </c>
       <c r="AL3">
-        <v>-0</v>
+        <v>199.8036651611328</v>
       </c>
       <c r="AM3">
-        <v>-0</v>
+        <v>200</v>
       </c>
       <c r="AN3">
-        <v>-0</v>
+        <v>47769.51953125</v>
       </c>
       <c r="AO3">
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>-0</v>
+        <v>199.8052673339844</v>
       </c>
       <c r="AQ3">
-        <v>-0</v>
+        <v>200</v>
       </c>
       <c r="AR3">
-        <v>-0</v>
+        <v>47366.81640625</v>
       </c>
       <c r="AS3">
         <v>0</v>
       </c>
       <c r="AT3">
-        <v>-0</v>
+        <v>72.89654541015625</v>
       </c>
       <c r="AU3">
-        <v>-0</v>
+        <v>160</v>
       </c>
       <c r="AV3">
-        <v>-0</v>
+        <v>16488.9921875</v>
       </c>
       <c r="AW3">
         <v>0</v>
       </c>
       <c r="AX3">
-        <v>-0</v>
+        <v>159.8468627929688</v>
       </c>
       <c r="AY3">
-        <v>-0</v>
+        <v>160</v>
       </c>
       <c r="AZ3">
-        <v>-0</v>
+        <v>37552.97265625</v>
       </c>
       <c r="BA3">
         <v>0</v>
@@ -1171,196 +1171,196 @@
     </row>
     <row r="4" spans="1:65">
       <c r="A4" s="2">
-        <v>43921</v>
+        <v>44043</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>86.74374389648438</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>86.82618713378906</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>19621.1875</v>
       </c>
       <c r="AC4">
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>43.83684158325195</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>43.87729644775391</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>9915.76953125</v>
       </c>
       <c r="AG4">
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>199.8054351806641</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>46951.40625</v>
       </c>
       <c r="AK4">
         <v>0</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>199.8017425537109</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>199.9999847412109</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>47854.69921875</v>
       </c>
       <c r="AO4">
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>199.8041687011719</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AR4">
-        <v>0</v>
+        <v>47220.859375</v>
       </c>
       <c r="AS4">
         <v>0</v>
       </c>
       <c r="AT4">
-        <v>0</v>
+        <v>68.57401275634766</v>
       </c>
       <c r="AU4">
-        <v>0</v>
+        <v>159.9990844726562</v>
       </c>
       <c r="AV4">
-        <v>0</v>
+        <v>15511.2470703125</v>
       </c>
       <c r="AW4">
         <v>0</v>
       </c>
       <c r="AX4">
-        <v>0</v>
+        <v>159.8441619873047</v>
       </c>
       <c r="AY4">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AZ4">
-        <v>0</v>
+        <v>37767.23828125</v>
       </c>
       <c r="BA4">
         <v>0</v>
       </c>
       <c r="BB4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE4">
         <v>0</v>
       </c>
       <c r="BF4">
-        <v>0</v>
+        <v>9.521663665771484</v>
       </c>
       <c r="BG4">
-        <v>0</v>
+        <v>1189.431518554688</v>
       </c>
       <c r="BH4">
-        <v>0</v>
+        <v>2154.068603515625</v>
       </c>
       <c r="BI4">
         <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM4">
         <v>0</v>
@@ -1368,7 +1368,7 @@
     </row>
     <row r="5" spans="1:65">
       <c r="A5" s="2">
-        <v>43951</v>
+        <v>44074</v>
       </c>
       <c r="B5">
         <v>-0</v>
@@ -1380,7 +1380,7 @@
         <v>-0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5">
         <v>-0</v>
@@ -1392,7 +1392,7 @@
         <v>-0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="J5">
         <v>-0</v>
@@ -1404,7 +1404,7 @@
         <v>-0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="N5">
         <v>-0</v>
@@ -1416,7 +1416,7 @@
         <v>-0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="R5">
         <v>-0</v>
@@ -1428,7 +1428,7 @@
         <v>-0</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="V5">
         <v>-0</v>
@@ -1440,88 +1440,88 @@
         <v>-0</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Z5">
-        <v>-0</v>
+        <v>86.90001678466797</v>
       </c>
       <c r="AA5">
-        <v>-0</v>
+        <v>86.98252105712891</v>
       </c>
       <c r="AB5">
-        <v>-0</v>
+        <v>19656.537109375</v>
       </c>
       <c r="AC5">
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>-0</v>
+        <v>43.16933822631836</v>
       </c>
       <c r="AE5">
-        <v>-0</v>
+        <v>43.20916366577149</v>
       </c>
       <c r="AF5">
-        <v>-0</v>
+        <v>9764.7822265625</v>
       </c>
       <c r="AG5">
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>-0</v>
+        <v>199.8080596923828</v>
       </c>
       <c r="AI5">
-        <v>-0</v>
+        <v>200</v>
       </c>
       <c r="AJ5">
-        <v>-0</v>
+        <v>46393.19921875</v>
       </c>
       <c r="AK5">
         <v>0</v>
       </c>
       <c r="AL5">
-        <v>-0</v>
+        <v>199.8049774169922</v>
       </c>
       <c r="AM5">
-        <v>-0</v>
+        <v>200</v>
       </c>
       <c r="AN5">
-        <v>-0</v>
+        <v>47614.421875</v>
       </c>
       <c r="AO5">
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>-0</v>
+        <v>199.8069305419922</v>
       </c>
       <c r="AQ5">
-        <v>-0</v>
+        <v>200</v>
       </c>
       <c r="AR5">
-        <v>-0</v>
+        <v>46689.40625</v>
       </c>
       <c r="AS5">
         <v>0</v>
       </c>
       <c r="AT5">
-        <v>-0</v>
+        <v>64.01895904541016</v>
       </c>
       <c r="AU5">
-        <v>-0</v>
+        <v>160</v>
       </c>
       <c r="AV5">
-        <v>-0</v>
+        <v>14480.9072265625</v>
       </c>
       <c r="AW5">
         <v>0</v>
       </c>
       <c r="AX5">
-        <v>-0</v>
+        <v>159.8447723388672</v>
       </c>
       <c r="AY5">
-        <v>-0</v>
+        <v>160</v>
       </c>
       <c r="AZ5">
-        <v>-0</v>
+        <v>37515.40234375</v>
       </c>
       <c r="BA5">
         <v>0</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="BF5">
-        <v>-0</v>
+        <v>12.98759651184082</v>
       </c>
       <c r="BG5">
-        <v>-0</v>
+        <v>1081.273559570312</v>
       </c>
       <c r="BH5">
-        <v>-0</v>
+        <v>2937.9013671875</v>
       </c>
       <c r="BI5">
         <v>0</v>
@@ -1565,196 +1565,196 @@
     </row>
     <row r="6" spans="1:65">
       <c r="A6" s="2">
-        <v>43982</v>
+        <v>44104</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E6">
-        <v>52.0720443725586</v>
+        <v>400</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I6">
-        <v>47.28286361694336</v>
+        <v>400</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M6">
-        <v>56.5341682434082</v>
+        <v>400</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q6">
-        <v>49.73638534545898</v>
+        <v>400</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U6">
-        <v>50.36697769165039</v>
+        <v>400</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y6">
-        <v>48.35117721557617</v>
+        <v>400</v>
       </c>
       <c r="Z6">
-        <v>84.44915771484375</v>
+        <v>87.23123168945312</v>
       </c>
       <c r="AA6">
-        <v>84.44915771484375</v>
+        <v>87.31394958496094</v>
       </c>
       <c r="AB6">
-        <v>19102.158203125</v>
+        <v>19731.45703125</v>
       </c>
       <c r="AC6">
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>39.40647888183594</v>
+        <v>42.53977966308594</v>
       </c>
       <c r="AE6">
-        <v>39.40647888183594</v>
+        <v>42.57901763916016</v>
       </c>
       <c r="AF6">
-        <v>8913.6337890625</v>
+        <v>9622.3779296875</v>
       </c>
       <c r="AG6">
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>100</v>
+        <v>199.8100433349609</v>
       </c>
       <c r="AI6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AJ6">
-        <v>22599.05859375</v>
+        <v>46017.9140625</v>
       </c>
       <c r="AK6">
         <v>0</v>
       </c>
       <c r="AL6">
-        <v>100</v>
+        <v>199.8080596923828</v>
       </c>
       <c r="AM6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AN6">
-        <v>22590.74609375</v>
+        <v>46948.51953125</v>
       </c>
       <c r="AO6">
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>100</v>
+        <v>199.8092803955078</v>
       </c>
       <c r="AQ6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AR6">
-        <v>22596.498046875</v>
+        <v>46292.03515625</v>
       </c>
       <c r="AS6">
         <v>0</v>
       </c>
       <c r="AT6">
-        <v>79.99909973144531</v>
+        <v>60.43070983886719</v>
       </c>
       <c r="AU6">
-        <v>80</v>
+        <v>159.9999847412109</v>
       </c>
       <c r="AV6">
-        <v>18095.568359375</v>
+        <v>13669.2548828125</v>
       </c>
       <c r="AW6">
         <v>0</v>
       </c>
       <c r="AX6">
-        <v>80</v>
+        <v>159.8455657958984</v>
       </c>
       <c r="AY6">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="AZ6">
-        <v>18083.001953125</v>
+        <v>37420.71875</v>
       </c>
       <c r="BA6">
         <v>0</v>
       </c>
       <c r="BB6">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC6">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD6">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE6">
         <v>0</v>
       </c>
       <c r="BF6">
-        <v>0</v>
+        <v>17.07661819458008</v>
       </c>
       <c r="BG6">
-        <v>0</v>
+        <v>930.8590087890624</v>
       </c>
       <c r="BH6">
-        <v>0</v>
+        <v>3862.76806640625</v>
       </c>
       <c r="BI6">
         <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0</v>
+        <v>9.09520435333252</v>
       </c>
       <c r="BK6">
-        <v>0</v>
+        <v>1672.366577148438</v>
       </c>
       <c r="BL6">
-        <v>0</v>
+        <v>2057.30908203125</v>
       </c>
       <c r="BM6">
         <v>0</v>
@@ -1762,7 +1762,7 @@
     </row>
     <row r="7" spans="1:65">
       <c r="A7" s="2">
-        <v>44012</v>
+        <v>44135</v>
       </c>
       <c r="B7">
         <v>-0</v>
@@ -1774,7 +1774,7 @@
         <v>-0</v>
       </c>
       <c r="E7">
-        <v>104.1440887451172</v>
+        <v>400</v>
       </c>
       <c r="F7">
         <v>-0</v>
@@ -1786,7 +1786,7 @@
         <v>-0</v>
       </c>
       <c r="I7">
-        <v>94.56572723388672</v>
+        <v>400</v>
       </c>
       <c r="J7">
         <v>-0</v>
@@ -1798,7 +1798,7 @@
         <v>-0</v>
       </c>
       <c r="M7">
-        <v>113.0683364868164</v>
+        <v>400</v>
       </c>
       <c r="N7">
         <v>-0</v>
@@ -1810,7 +1810,7 @@
         <v>-0</v>
       </c>
       <c r="Q7">
-        <v>99.47277069091795</v>
+        <v>400</v>
       </c>
       <c r="R7">
         <v>-0</v>
@@ -1822,7 +1822,7 @@
         <v>-0</v>
       </c>
       <c r="U7">
-        <v>100.7339553833008</v>
+        <v>400</v>
       </c>
       <c r="V7">
         <v>-0</v>
@@ -1834,88 +1834,88 @@
         <v>-0</v>
       </c>
       <c r="Y7">
-        <v>96.70235443115234</v>
+        <v>400</v>
       </c>
       <c r="Z7">
-        <v>168.8983154296875</v>
+        <v>87.32289123535156</v>
       </c>
       <c r="AA7">
-        <v>168.8983154296875</v>
+        <v>87.40563201904297</v>
       </c>
       <c r="AB7">
-        <v>38204.31640625</v>
+        <v>19752.19140625</v>
       </c>
       <c r="AC7">
         <v>0</v>
       </c>
       <c r="AD7">
-        <v>78.81295776367188</v>
+        <v>41.88286209106445</v>
       </c>
       <c r="AE7">
-        <v>78.81295776367188</v>
+        <v>41.92148590087891</v>
       </c>
       <c r="AF7">
-        <v>17827.267578125</v>
+        <v>9473.7841796875</v>
       </c>
       <c r="AG7">
         <v>0</v>
       </c>
       <c r="AH7">
-        <v>200</v>
+        <v>199.8112335205078</v>
       </c>
       <c r="AI7">
         <v>200</v>
       </c>
       <c r="AJ7">
-        <v>45198.1171875</v>
+        <v>45799.1328125</v>
       </c>
       <c r="AK7">
         <v>0</v>
       </c>
       <c r="AL7">
-        <v>200</v>
+        <v>199.8102416992188</v>
       </c>
       <c r="AM7">
         <v>200</v>
       </c>
       <c r="AN7">
-        <v>45181.4921875</v>
+        <v>46362.625</v>
       </c>
       <c r="AO7">
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>200</v>
+        <v>199.8107299804688</v>
       </c>
       <c r="AQ7">
         <v>200</v>
       </c>
       <c r="AR7">
-        <v>45192.99609375</v>
+        <v>45968.9921875</v>
       </c>
       <c r="AS7">
         <v>0</v>
       </c>
       <c r="AT7">
-        <v>159.9981994628906</v>
+        <v>58.67362594604492</v>
       </c>
       <c r="AU7">
         <v>160</v>
       </c>
       <c r="AV7">
-        <v>36191.13671875</v>
+        <v>13271.8076171875</v>
       </c>
       <c r="AW7">
         <v>0</v>
       </c>
       <c r="AX7">
-        <v>160</v>
+        <v>159.846435546875</v>
       </c>
       <c r="AY7">
         <v>160</v>
       </c>
       <c r="AZ7">
-        <v>36166.00390625</v>
+        <v>37228.25</v>
       </c>
       <c r="BA7">
         <v>0</v>
@@ -1933,25 +1933,25 @@
         <v>0</v>
       </c>
       <c r="BF7">
-        <v>-0</v>
+        <v>19.05709838867188</v>
       </c>
       <c r="BG7">
-        <v>-0</v>
+        <v>884.382568359375</v>
       </c>
       <c r="BH7">
-        <v>-0</v>
+        <v>4310.70751953125</v>
       </c>
       <c r="BI7">
         <v>0</v>
       </c>
       <c r="BJ7">
-        <v>-0</v>
+        <v>16.79552841186523</v>
       </c>
       <c r="BK7">
-        <v>-0</v>
+        <v>1442.994262695312</v>
       </c>
       <c r="BL7">
-        <v>-0</v>
+        <v>3799.12890625</v>
       </c>
       <c r="BM7">
         <v>0</v>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="8" spans="1:65">
       <c r="A8" s="2">
-        <v>44043</v>
+        <v>44165</v>
       </c>
       <c r="B8">
         <v>-0</v>
@@ -1971,7 +1971,7 @@
         <v>-0</v>
       </c>
       <c r="E8">
-        <v>22.86551284790039</v>
+        <v>400</v>
       </c>
       <c r="F8">
         <v>-0</v>
@@ -1983,7 +1983,7 @@
         <v>-0</v>
       </c>
       <c r="I8">
-        <v>20.52542304992676</v>
+        <v>400</v>
       </c>
       <c r="J8">
         <v>-0</v>
@@ -1995,7 +1995,7 @@
         <v>-0</v>
       </c>
       <c r="M8">
-        <v>23.41157722473145</v>
+        <v>400</v>
       </c>
       <c r="N8">
         <v>-0</v>
@@ -2007,7 +2007,7 @@
         <v>-0</v>
       </c>
       <c r="Q8">
-        <v>23.00963592529297</v>
+        <v>400</v>
       </c>
       <c r="R8">
         <v>-0</v>
@@ -2019,7 +2019,7 @@
         <v>-0</v>
       </c>
       <c r="U8">
-        <v>22.55912971496582</v>
+        <v>400</v>
       </c>
       <c r="V8">
         <v>-0</v>
@@ -2031,88 +2031,88 @@
         <v>-0</v>
       </c>
       <c r="Y8">
-        <v>22.15547752380371</v>
+        <v>400</v>
       </c>
       <c r="Z8">
-        <v>108.3065948486328</v>
+        <v>87.02555847167969</v>
       </c>
       <c r="AA8">
-        <v>108.3065948486328</v>
+        <v>87.10800170898438</v>
       </c>
       <c r="AB8">
-        <v>24498.64453125</v>
+        <v>19684.93359375</v>
       </c>
       <c r="AC8">
         <v>0</v>
       </c>
       <c r="AD8">
-        <v>60.29885482788086</v>
+        <v>41.28292083740234</v>
       </c>
       <c r="AE8">
-        <v>60.29885482788086</v>
+        <v>41.32099533081055</v>
       </c>
       <c r="AF8">
-        <v>13639.4296875</v>
+        <v>9338.0791015625</v>
       </c>
       <c r="AG8">
         <v>0</v>
       </c>
       <c r="AH8">
-        <v>200</v>
+        <v>199.8118438720703</v>
       </c>
       <c r="AI8">
         <v>200</v>
       </c>
       <c r="AJ8">
-        <v>45636.07421875</v>
+        <v>45694.125</v>
       </c>
       <c r="AK8">
         <v>0</v>
       </c>
       <c r="AL8">
-        <v>200</v>
+        <v>199.8113708496094</v>
       </c>
       <c r="AM8">
         <v>200</v>
       </c>
       <c r="AN8">
-        <v>45865.1484375</v>
+        <v>46087.9453125</v>
       </c>
       <c r="AO8">
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>200</v>
+        <v>199.811538696289</v>
       </c>
       <c r="AQ8">
         <v>200</v>
       </c>
       <c r="AR8">
-        <v>45714.4765625</v>
+        <v>45808.703125</v>
       </c>
       <c r="AS8">
         <v>0</v>
       </c>
       <c r="AT8">
-        <v>159.9980316162109</v>
+        <v>59.40430450439453</v>
       </c>
       <c r="AU8">
         <v>160</v>
       </c>
       <c r="AV8">
-        <v>36191.1015625</v>
+        <v>13437.0849609375</v>
       </c>
       <c r="AW8">
         <v>0</v>
       </c>
       <c r="AX8">
-        <v>160</v>
+        <v>159.8470458984375</v>
       </c>
       <c r="AY8">
         <v>160</v>
       </c>
       <c r="AZ8">
-        <v>36339.66015625</v>
+        <v>37024.125</v>
       </c>
       <c r="BA8">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>-0</v>
       </c>
       <c r="BC8">
-        <v>0.01440979260951281</v>
+        <v>-0</v>
       </c>
       <c r="BD8">
         <v>-0</v>
@@ -2130,815 +2130,27 @@
         <v>0</v>
       </c>
       <c r="BF8">
-        <v>1.223122081048245e-12</v>
+        <v>19.48560523986816</v>
       </c>
       <c r="BG8">
-        <v>0.02055663987994194</v>
+        <v>858.5883178710938</v>
       </c>
       <c r="BH8">
-        <v>3.28135912538996e-12</v>
+        <v>4407.61767578125</v>
       </c>
       <c r="BI8">
         <v>0</v>
       </c>
       <c r="BJ8">
-        <v>-0</v>
+        <v>23.99658012390137</v>
       </c>
       <c r="BK8">
-        <v>-0</v>
+        <v>1298.350708007812</v>
       </c>
       <c r="BL8">
-        <v>-0</v>
+        <v>5428.15966796875</v>
       </c>
       <c r="BM8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:65">
-      <c r="A9" s="2">
-        <v>44074</v>
-      </c>
-      <c r="B9">
-        <v>-0</v>
-      </c>
-      <c r="C9">
-        <v>-0</v>
-      </c>
-      <c r="D9">
-        <v>-0</v>
-      </c>
-      <c r="E9">
-        <v>13.71600437164306</v>
-      </c>
-      <c r="F9">
-        <v>-0</v>
-      </c>
-      <c r="G9">
-        <v>-0</v>
-      </c>
-      <c r="H9">
-        <v>-0</v>
-      </c>
-      <c r="I9">
-        <v>12.73230171203613</v>
-      </c>
-      <c r="J9">
-        <v>-0</v>
-      </c>
-      <c r="K9">
-        <v>-0</v>
-      </c>
-      <c r="L9">
-        <v>-0</v>
-      </c>
-      <c r="M9">
-        <v>14.00620651245117</v>
-      </c>
-      <c r="N9">
-        <v>-0</v>
-      </c>
-      <c r="O9">
-        <v>-0</v>
-      </c>
-      <c r="P9">
-        <v>-0</v>
-      </c>
-      <c r="Q9">
-        <v>14.65768718719482</v>
-      </c>
-      <c r="R9">
-        <v>-0</v>
-      </c>
-      <c r="S9">
-        <v>-0</v>
-      </c>
-      <c r="T9">
-        <v>-0</v>
-      </c>
-      <c r="U9">
-        <v>13.79601192474365</v>
-      </c>
-      <c r="V9">
-        <v>-0</v>
-      </c>
-      <c r="W9">
-        <v>-0</v>
-      </c>
-      <c r="X9">
-        <v>-0</v>
-      </c>
-      <c r="Y9">
-        <v>13.80373954772949</v>
-      </c>
-      <c r="Z9">
-        <v>74.00224304199219</v>
-      </c>
-      <c r="AA9">
-        <v>74.00224304199219</v>
-      </c>
-      <c r="AB9">
-        <v>16726.626953125</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>59.04126739501953</v>
-      </c>
-      <c r="AE9">
-        <v>59.04126739501953</v>
-      </c>
-      <c r="AF9">
-        <v>13354.966796875</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>200</v>
-      </c>
-      <c r="AI9">
-        <v>200</v>
-      </c>
-      <c r="AJ9">
-        <v>45888.58203125</v>
-      </c>
-      <c r="AK9">
-        <v>0</v>
-      </c>
-      <c r="AL9">
-        <v>200</v>
-      </c>
-      <c r="AM9">
-        <v>200</v>
-      </c>
-      <c r="AN9">
-        <v>46296.2265625</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>200</v>
-      </c>
-      <c r="AQ9">
-        <v>200</v>
-      </c>
-      <c r="AR9">
-        <v>46027.80078125</v>
-      </c>
-      <c r="AS9">
-        <v>0</v>
-      </c>
-      <c r="AT9">
-        <v>159.9979400634766</v>
-      </c>
-      <c r="AU9">
-        <v>160</v>
-      </c>
-      <c r="AV9">
-        <v>36191.08203125</v>
-      </c>
-      <c r="AW9">
-        <v>0</v>
-      </c>
-      <c r="AX9">
-        <v>160</v>
-      </c>
-      <c r="AY9">
-        <v>160</v>
-      </c>
-      <c r="AZ9">
-        <v>36465.34375</v>
-      </c>
-      <c r="BA9">
-        <v>0</v>
-      </c>
-      <c r="BB9">
-        <v>-0</v>
-      </c>
-      <c r="BC9">
-        <v>0.01430484745651484</v>
-      </c>
-      <c r="BD9">
-        <v>-0</v>
-      </c>
-      <c r="BE9">
-        <v>0</v>
-      </c>
-      <c r="BF9">
-        <v>9.502437795283387e-17</v>
-      </c>
-      <c r="BG9">
-        <v>0.02044409699738026</v>
-      </c>
-      <c r="BH9">
-        <v>2.5749052501768e-16</v>
-      </c>
-      <c r="BI9">
-        <v>0</v>
-      </c>
-      <c r="BJ9">
-        <v>-0</v>
-      </c>
-      <c r="BK9">
-        <v>-0</v>
-      </c>
-      <c r="BL9">
-        <v>-0</v>
-      </c>
-      <c r="BM9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:65">
-      <c r="A10" s="2">
-        <v>44104</v>
-      </c>
-      <c r="B10">
-        <v>-0</v>
-      </c>
-      <c r="C10">
-        <v>-0</v>
-      </c>
-      <c r="D10">
-        <v>-0</v>
-      </c>
-      <c r="E10">
-        <v>9.595342636108398</v>
-      </c>
-      <c r="F10">
-        <v>-0</v>
-      </c>
-      <c r="G10">
-        <v>-0</v>
-      </c>
-      <c r="H10">
-        <v>-0</v>
-      </c>
-      <c r="I10">
-        <v>8.439897537231445</v>
-      </c>
-      <c r="J10">
-        <v>-0</v>
-      </c>
-      <c r="K10">
-        <v>-0</v>
-      </c>
-      <c r="L10">
-        <v>-0</v>
-      </c>
-      <c r="M10">
-        <v>9.669013977050779</v>
-      </c>
-      <c r="N10">
-        <v>-0</v>
-      </c>
-      <c r="O10">
-        <v>-0</v>
-      </c>
-      <c r="P10">
-        <v>-0</v>
-      </c>
-      <c r="Q10">
-        <v>10.58989906311035</v>
-      </c>
-      <c r="R10">
-        <v>-0</v>
-      </c>
-      <c r="S10">
-        <v>-0</v>
-      </c>
-      <c r="T10">
-        <v>-0</v>
-      </c>
-      <c r="U10">
-        <v>9.376742362976074</v>
-      </c>
-      <c r="V10">
-        <v>-0</v>
-      </c>
-      <c r="W10">
-        <v>-0</v>
-      </c>
-      <c r="X10">
-        <v>-0</v>
-      </c>
-      <c r="Y10">
-        <v>9.469285011291504</v>
-      </c>
-      <c r="Z10">
-        <v>55.34966659545898</v>
-      </c>
-      <c r="AA10">
-        <v>55.34966659545898</v>
-      </c>
-      <c r="AB10">
-        <v>12490.1806640625</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>57.84186935424805</v>
-      </c>
-      <c r="AE10">
-        <v>57.84186935424805</v>
-      </c>
-      <c r="AF10">
-        <v>13083.6669921875</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>200</v>
-      </c>
-      <c r="AI10">
-        <v>200</v>
-      </c>
-      <c r="AJ10">
-        <v>46402.42578125</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10">
-        <v>200</v>
-      </c>
-      <c r="AM10">
-        <v>200</v>
-      </c>
-      <c r="AN10">
-        <v>47326.95703125</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10">
-        <v>200</v>
-      </c>
-      <c r="AQ10">
-        <v>200</v>
-      </c>
-      <c r="AR10">
-        <v>46940.73046875</v>
-      </c>
-      <c r="AS10">
-        <v>0</v>
-      </c>
-      <c r="AT10">
-        <v>159.9978485107422</v>
-      </c>
-      <c r="AU10">
-        <v>160</v>
-      </c>
-      <c r="AV10">
-        <v>36190.64453125</v>
-      </c>
-      <c r="AW10">
-        <v>0</v>
-      </c>
-      <c r="AX10">
-        <v>160</v>
-      </c>
-      <c r="AY10">
-        <v>160</v>
-      </c>
-      <c r="AZ10">
-        <v>36563.79296875</v>
-      </c>
-      <c r="BA10">
-        <v>0</v>
-      </c>
-      <c r="BB10">
-        <v>-0</v>
-      </c>
-      <c r="BC10">
-        <v>0.01421017851680517</v>
-      </c>
-      <c r="BD10">
-        <v>-0</v>
-      </c>
-      <c r="BE10">
-        <v>0</v>
-      </c>
-      <c r="BF10">
-        <v>-0</v>
-      </c>
-      <c r="BG10">
-        <v>0.02034411951899529</v>
-      </c>
-      <c r="BH10">
-        <v>2.168391129468254e-20</v>
-      </c>
-      <c r="BI10">
-        <v>0</v>
-      </c>
-      <c r="BJ10">
-        <v>3.146011067656218e-06</v>
-      </c>
-      <c r="BK10">
-        <v>0.02605015784502029</v>
-      </c>
-      <c r="BL10">
-        <v>0.0001739451545290649</v>
-      </c>
-      <c r="BM10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:65">
-      <c r="A11" s="2">
-        <v>44135</v>
-      </c>
-      <c r="B11">
-        <v>-0</v>
-      </c>
-      <c r="C11">
-        <v>-0</v>
-      </c>
-      <c r="D11">
-        <v>-0</v>
-      </c>
-      <c r="E11">
-        <v>7.265851020812987</v>
-      </c>
-      <c r="F11">
-        <v>-0</v>
-      </c>
-      <c r="G11">
-        <v>-0</v>
-      </c>
-      <c r="H11">
-        <v>-0</v>
-      </c>
-      <c r="I11">
-        <v>5.92884349822998</v>
-      </c>
-      <c r="J11">
-        <v>-0</v>
-      </c>
-      <c r="K11">
-        <v>-0</v>
-      </c>
-      <c r="L11">
-        <v>-0</v>
-      </c>
-      <c r="M11">
-        <v>7.85194206237793</v>
-      </c>
-      <c r="N11">
-        <v>-0</v>
-      </c>
-      <c r="O11">
-        <v>-0</v>
-      </c>
-      <c r="P11">
-        <v>-0</v>
-      </c>
-      <c r="Q11">
-        <v>8.004386901855469</v>
-      </c>
-      <c r="R11">
-        <v>-0</v>
-      </c>
-      <c r="S11">
-        <v>-0</v>
-      </c>
-      <c r="T11">
-        <v>-0</v>
-      </c>
-      <c r="U11">
-        <v>7.138845443725586</v>
-      </c>
-      <c r="V11">
-        <v>-0</v>
-      </c>
-      <c r="W11">
-        <v>-0</v>
-      </c>
-      <c r="X11">
-        <v>-0</v>
-      </c>
-      <c r="Y11">
-        <v>7.183317184448242</v>
-      </c>
-      <c r="Z11">
-        <v>46.39177703857422</v>
-      </c>
-      <c r="AA11">
-        <v>46.39177703857422</v>
-      </c>
-      <c r="AB11">
-        <v>10441.6171875</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <v>56.62425231933594</v>
-      </c>
-      <c r="AE11">
-        <v>56.62425231933594</v>
-      </c>
-      <c r="AF11">
-        <v>12808.2451171875</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>200</v>
-      </c>
-      <c r="AI11">
-        <v>200</v>
-      </c>
-      <c r="AJ11">
-        <v>47063.3046875</v>
-      </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
-      <c r="AL11">
-        <v>200</v>
-      </c>
-      <c r="AM11">
-        <v>200</v>
-      </c>
-      <c r="AN11">
-        <v>47906.6640625</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11">
-        <v>199.9999847412109</v>
-      </c>
-      <c r="AQ11">
-        <v>199.9999847412109</v>
-      </c>
-      <c r="AR11">
-        <v>47457.828125</v>
-      </c>
-      <c r="AS11">
-        <v>0</v>
-      </c>
-      <c r="AT11">
-        <v>159.9977416992188</v>
-      </c>
-      <c r="AU11">
-        <v>160</v>
-      </c>
-      <c r="AV11">
-        <v>36187.52734375</v>
-      </c>
-      <c r="AW11">
-        <v>0</v>
-      </c>
-      <c r="AX11">
-        <v>160</v>
-      </c>
-      <c r="AY11">
-        <v>160</v>
-      </c>
-      <c r="AZ11">
-        <v>36682.90234375</v>
-      </c>
-      <c r="BA11">
-        <v>0</v>
-      </c>
-      <c r="BB11">
-        <v>-0</v>
-      </c>
-      <c r="BC11">
-        <v>0.01412032451480627</v>
-      </c>
-      <c r="BD11">
-        <v>-0</v>
-      </c>
-      <c r="BE11">
-        <v>0</v>
-      </c>
-      <c r="BF11">
-        <v>-0</v>
-      </c>
-      <c r="BG11">
-        <v>0.02025101147592068</v>
-      </c>
-      <c r="BH11">
-        <v>9.692311744094099e-23</v>
-      </c>
-      <c r="BI11">
-        <v>0</v>
-      </c>
-      <c r="BJ11">
-        <v>1.091932144703378e-08</v>
-      </c>
-      <c r="BK11">
-        <v>0.02559487335383892</v>
-      </c>
-      <c r="BL11">
-        <v>6.037369075784227e-07</v>
-      </c>
-      <c r="BM11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:65">
-      <c r="A12" s="2">
-        <v>44165</v>
-      </c>
-      <c r="B12">
-        <v>-0</v>
-      </c>
-      <c r="C12">
-        <v>-0</v>
-      </c>
-      <c r="D12">
-        <v>-0</v>
-      </c>
-      <c r="E12">
-        <v>6.131143093109131</v>
-      </c>
-      <c r="F12">
-        <v>-0</v>
-      </c>
-      <c r="G12">
-        <v>-0</v>
-      </c>
-      <c r="H12">
-        <v>-0</v>
-      </c>
-      <c r="I12">
-        <v>4.75043249130249</v>
-      </c>
-      <c r="J12">
-        <v>-0</v>
-      </c>
-      <c r="K12">
-        <v>-0</v>
-      </c>
-      <c r="L12">
-        <v>-0</v>
-      </c>
-      <c r="M12">
-        <v>6.948556900024414</v>
-      </c>
-      <c r="N12">
-        <v>-0</v>
-      </c>
-      <c r="O12">
-        <v>-0</v>
-      </c>
-      <c r="P12">
-        <v>-0</v>
-      </c>
-      <c r="Q12">
-        <v>6.25780725479126</v>
-      </c>
-      <c r="R12">
-        <v>-0</v>
-      </c>
-      <c r="S12">
-        <v>-0</v>
-      </c>
-      <c r="T12">
-        <v>-0</v>
-      </c>
-      <c r="U12">
-        <v>6.019805431365968</v>
-      </c>
-      <c r="V12">
-        <v>-0</v>
-      </c>
-      <c r="W12">
-        <v>-0</v>
-      </c>
-      <c r="X12">
-        <v>-0</v>
-      </c>
-      <c r="Y12">
-        <v>5.704196929931642</v>
-      </c>
-      <c r="Z12">
-        <v>40.03860473632813</v>
-      </c>
-      <c r="AA12">
-        <v>40.03860473632813</v>
-      </c>
-      <c r="AB12">
-        <v>8965.244140625</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>55.46866989135742</v>
-      </c>
-      <c r="AE12">
-        <v>55.46866989135742</v>
-      </c>
-      <c r="AF12">
-        <v>12546.85546875</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>200</v>
-      </c>
-      <c r="AI12">
-        <v>200</v>
-      </c>
-      <c r="AJ12">
-        <v>47810.609375</v>
-      </c>
-      <c r="AK12">
-        <v>0</v>
-      </c>
-      <c r="AL12">
-        <v>200</v>
-      </c>
-      <c r="AM12">
-        <v>200</v>
-      </c>
-      <c r="AN12">
-        <v>48594.41796875</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <v>200</v>
-      </c>
-      <c r="AQ12">
-        <v>200</v>
-      </c>
-      <c r="AR12">
-        <v>48226.66796875</v>
-      </c>
-      <c r="AS12">
-        <v>0</v>
-      </c>
-      <c r="AT12">
-        <v>159.9976501464844</v>
-      </c>
-      <c r="AU12">
-        <v>160</v>
-      </c>
-      <c r="AV12">
-        <v>36181.34765625</v>
-      </c>
-      <c r="AW12">
-        <v>0</v>
-      </c>
-      <c r="AX12">
-        <v>160</v>
-      </c>
-      <c r="AY12">
-        <v>160</v>
-      </c>
-      <c r="AZ12">
-        <v>36768.8828125</v>
-      </c>
-      <c r="BA12">
-        <v>0</v>
-      </c>
-      <c r="BB12">
-        <v>-0</v>
-      </c>
-      <c r="BC12">
-        <v>0.01403873227536678</v>
-      </c>
-      <c r="BD12">
-        <v>-0</v>
-      </c>
-      <c r="BE12">
-        <v>0</v>
-      </c>
-      <c r="BF12">
-        <v>-0</v>
-      </c>
-      <c r="BG12">
-        <v>0.02016769722104073</v>
-      </c>
-      <c r="BH12">
-        <v>4.496518499635279e-25</v>
-      </c>
-      <c r="BI12">
-        <v>0</v>
-      </c>
-      <c r="BJ12">
-        <v>4.011886309274182e-11</v>
-      </c>
-      <c r="BK12">
-        <v>0.02545472234487534</v>
-      </c>
-      <c r="BL12">
-        <v>2.218200068071496e-09</v>
-      </c>
-      <c r="BM12">
         <v>0</v>
       </c>
     </row>
